--- a/config_hlw/fish3d_path_config.xlsx
+++ b/config_hlw/fish3d_path_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|鱼线配置" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
   <si>
     <t>id|ID，全局唯一</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1924,6 +1924,26 @@
   </si>
   <si>
     <t>1+107#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10.84#0.06#-0.01#0.06</t>
+  </si>
+  <si>
+    <t>2.07#0.06#11.89#0.06</t>
+  </si>
+  <si>
+    <t>1+108#3+8#1+109#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.41#0.14#0.03#0.14</t>
+  </si>
+  <si>
+    <t>-1.81#0.11#-11.76#0.11</t>
+  </si>
+  <si>
+    <t>1+110#3+8#1+111#</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2368,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3833,6 +3853,28 @@
         <v>226</v>
       </c>
     </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>107</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>108</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3842,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5139,6 +5181,50 @@
       </c>
       <c r="C108" s="12" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>109</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>110</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>111</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
